--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a0976\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a0976\Desktop\temp\lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="參考日程表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="ps.查詢頁" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">參考日程表!$B$2:$M$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">參考日程表!$A$1:$L$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>學校名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>往前推一天，包含繳費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2022/2/9,2/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>簡章11/14開放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2/6,2/7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>要查各系官網</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://adms-acad.ncku.edu.tw/p/406-1044-227148,r3265.php?Lang=zh-tw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,7 +253,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>台北市大</t>
+    <t>https://graduate.ntut.edu.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>報名資訊頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入報名頁面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nsysu.edu.tw/p/412-1000-94.php?Lang=zh-tw</t>
+  </si>
+  <si>
+    <t>https://admission.ncu.edu.tw/zh-TW/content/78/13</t>
+  </si>
+  <si>
+    <t>https://adms-acad.ncku.edu.tw/p/406-1044-227148,r3265.php?Lang=zh-tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nccu.edu.tw/p/406-1000-12751,r122.php?Lang=zh-tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://exams.ccu.edu.tw/var/file/32/1032/img/1165/112schedule.htm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,8 +323,24 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,45 +355,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -379,29 +383,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,357 +692,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="66.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="67.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44894</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44908</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="3">
+        <v>44615</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44636</v>
+      </c>
+      <c r="J2" s="3">
+        <v>44908</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44896</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44902</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44567</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44616</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44644</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44887</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44902</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44914</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44593</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44901</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44915</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44604</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44630</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44651</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44887</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44895</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44922</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3">
+        <v>44615</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="I6" s="3">
+        <v>44626</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="K6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44893</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44907</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44592</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44602</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="7">
-        <v>44894</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44908</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="7">
-        <v>44615</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="7">
-        <v>44636</v>
-      </c>
-      <c r="K3" s="7">
-        <v>44908</v>
-      </c>
-      <c r="L3" s="6" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44900</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44910</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="7">
-        <v>44896</v>
-      </c>
-      <c r="E4" s="7">
-        <v>44902</v>
-      </c>
-      <c r="F4" s="7">
-        <v>44567</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="7">
-        <v>44616</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="7">
-        <v>44644</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="L8" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
-        <v>44877</v>
-      </c>
-      <c r="E5" s="7">
-        <v>44902</v>
-      </c>
-      <c r="F5" s="7">
-        <v>44914</v>
-      </c>
-      <c r="G5" s="7">
-        <v>44593</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7">
-        <v>44901</v>
-      </c>
-      <c r="E6" s="7">
-        <v>44915</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7">
-        <v>44604</v>
-      </c>
-      <c r="H6" s="7">
-        <v>44630</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="7">
-        <v>44651</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="7">
-        <v>44887</v>
-      </c>
-      <c r="E7" s="7">
-        <v>44895</v>
-      </c>
-      <c r="F7" s="7">
-        <v>44922</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="7">
-        <v>44615</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="7">
-        <v>44626</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>44893</v>
-      </c>
-      <c r="E8" s="7">
-        <v>44907</v>
-      </c>
-      <c r="F8" s="7">
-        <v>44592</v>
-      </c>
-      <c r="G8" s="7">
-        <v>44602</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="6">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:M10">
-    <sortState ref="B3:M10">
-      <sortCondition ref="B2:B10"/>
+  <autoFilter ref="A1:L9">
+    <sortState ref="A3:L10">
+      <sortCondition ref="A2:A10"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M8" r:id="rId1"/>
+    <hyperlink ref="L7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1044,26 +1015,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="e">
-        <f>lookup</f>
-        <v>#NAME?</v>
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>LOOKUP(A2,參考日程表!A2:A9,參考日程表!B2:B9)</f>
+        <v>政治大學</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>LOOKUP(A3,參考日程表!A3:A10,參考日程表!B3:B10)</f>
+        <v>成功大學</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>LOOKUP(A4,參考日程表!A4:A11,參考日程表!B4:B11)</f>
+        <v>中山大學</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>LOOKUP(A5,參考日程表!A5:A12,參考日程表!B5:B12)</f>
+        <v>中正大學</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>LOOKUP(A6,參考日程表!A6:A13,參考日程表!B6:B13)</f>
+        <v>中央大學</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>LOOKUP(A7,參考日程表!A7:A14,參考日程表!B7:B14)</f>
+        <v>中興大學</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>LOOKUP(A8,參考日程表!A8:A15,參考日程表!B8:B15)</f>
+        <v>台北科大</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>LOOKUP(A9,參考日程表!A9:A16,參考日程表!B9:B16)</f>
+        <v>台北大學</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1153,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -16,7 +16,7 @@
     <sheet name="繳交資料" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">參考日程表!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">參考日程表!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>學校名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,14 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022/2/9,2/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022/2/2,2/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3/3~3/12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2/6,2/7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,6 +237,57 @@
   </si>
   <si>
     <t>已繳費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清華大學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通大學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://exam.nycu.edu.tw/112ME/112ME2/</t>
+  </si>
+  <si>
+    <t>招生人數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考試方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考試地點選在台北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共23(甲組10人)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共20(報乙組，兩組比例分)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考慮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16人(計概英文)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +340,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +371,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -350,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,10 +432,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,13 +746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="13" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="12" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -687,12 +765,16 @@
     <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="67.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="12.6640625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="67.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -721,245 +803,264 @@
         <v>14</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="14">
+        <v>44887</v>
+      </c>
+      <c r="D2" s="14">
+        <v>44902</v>
+      </c>
+      <c r="E2" s="14">
+        <v>44914</v>
+      </c>
+      <c r="F2" s="14">
+        <v>44593</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="14">
+        <v>44887</v>
+      </c>
+      <c r="D3" s="14">
+        <v>44895</v>
+      </c>
+      <c r="E3" s="14">
+        <v>44922</v>
+      </c>
+      <c r="F3" s="14">
+        <v>44601</v>
+      </c>
+      <c r="G3" s="14">
+        <v>44615</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="14">
+        <v>44626</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P3" s="13">
+        <v>1</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>44893</v>
+      </c>
+      <c r="D4" s="11">
+        <v>44907</v>
+      </c>
+      <c r="E4" s="11">
+        <v>44592</v>
+      </c>
+      <c r="F4" s="11">
+        <v>44602</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="18">
+        <v>44894</v>
+      </c>
+      <c r="D5" s="18">
+        <v>44908</v>
+      </c>
+      <c r="F5" s="18">
+        <v>44595</v>
+      </c>
+      <c r="G5" s="18">
+        <v>44615</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="18">
+        <v>44636</v>
+      </c>
+      <c r="J5" s="18">
+        <v>44908</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="18">
+        <v>44896</v>
+      </c>
+      <c r="D6" s="18">
+        <v>44902</v>
+      </c>
+      <c r="E6" s="18">
+        <v>44567</v>
+      </c>
+      <c r="F6" s="18">
+        <v>44599</v>
+      </c>
+      <c r="G6" s="18">
+        <v>44616</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="18">
+        <v>44644</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44887</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44902</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44914</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44593</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="P6" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44887</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44895</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44922</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2">
-        <v>44615</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2">
-        <v>44626</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>44893</v>
-      </c>
-      <c r="D4" s="10">
-        <v>44907</v>
-      </c>
-      <c r="E4" s="10">
-        <v>44592</v>
-      </c>
-      <c r="F4" s="10">
-        <v>44602</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44894</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44908</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2">
-        <v>44615</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="2">
-        <v>44636</v>
-      </c>
-      <c r="J5" s="2">
-        <v>44908</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44896</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44902</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44567</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2">
-        <v>44616</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="2">
-        <v>44644</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
         <v>44900</v>
@@ -976,20 +1077,20 @@
       <c r="K7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="M7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="1">
+      <c r="N7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1015,46 +1116,104 @@
         <v>44651</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="N8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="1">
+      <c r="C9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11">
+        <v>44594</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
+      <c r="R10" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1">
-    <sortState ref="A2:O9">
+  <autoFilter ref="A1:P1">
+    <sortState ref="A2:P11">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1"/>
-    <hyperlink ref="N7" r:id="rId2"/>
-    <hyperlink ref="M4" r:id="rId3"/>
-    <hyperlink ref="M6" r:id="rId4"/>
-    <hyperlink ref="M5" r:id="rId5"/>
-    <hyperlink ref="M8" r:id="rId6"/>
+    <hyperlink ref="M4" r:id="rId1"/>
+    <hyperlink ref="O7" r:id="rId2"/>
+    <hyperlink ref="N4" r:id="rId3"/>
+    <hyperlink ref="N6" r:id="rId4"/>
+    <hyperlink ref="N5" r:id="rId5"/>
+    <hyperlink ref="N8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -1086,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1100,11 +1259,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>VLOOKUP(A2,參考日程表!$A$2:$L$9,2,TRUE)</f>
+        <f>VLOOKUP(A2,參考日程表!$A$2:$M$9,2,TRUE)</f>
         <v>政治大學</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1112,11 +1271,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>VLOOKUP(A3,參考日程表!$A$2:$L$9,2,TRUE)</f>
+        <f>VLOOKUP(A3,參考日程表!$A$2:$M$9,2,TRUE)</f>
         <v>成功大學</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1124,14 +1283,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>VLOOKUP(A4,參考日程表!$A$2:$L$9,2,TRUE)</f>
+        <f>VLOOKUP(A4,參考日程表!$A$2:$M$9,2,TRUE)</f>
         <v>成功大學</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1139,11 +1298,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>VLOOKUP(A5,參考日程表!$A$2:$L$9,2,TRUE)</f>
+        <f>VLOOKUP(A5,參考日程表!$A$2:$M$9,2,TRUE)</f>
         <v>成功大學</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1151,14 +1310,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f>VLOOKUP(A6,參考日程表!$A$2:$L$9,2,TRUE)</f>
+        <f>VLOOKUP(A6,參考日程表!$A$2:$M$9,2,TRUE)</f>
         <v>成功大學</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1166,7 +1325,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>VLOOKUP(A7,參考日程表!$A$2:$L$9,2,TRUE)</f>
+        <f>VLOOKUP(A7,參考日程表!$A$2:$M$9,2,TRUE)</f>
         <v>成功大學</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1178,14 +1337,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>VLOOKUP(A8,參考日程表!$A$2:$L$9,2,TRUE)</f>
+        <f>VLOOKUP(A8,參考日程表!$A$2:$M$9,2,TRUE)</f>
         <v>台北科大</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1193,8 +1352,8 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>VLOOKUP(A9,參考日程表!$A$2:$L$9,2,TRUE)</f>
-        <v>台北大學</v>
+        <f>VLOOKUP(A9,參考日程表!$A$2:$M$9,2,TRUE)</f>
+        <v>中正大學</v>
       </c>
     </row>
   </sheetData>
